--- a/report/R4.4.15(2).xlsx
+++ b/report/R4.4.15(2).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\田中裕\Documents\GitHub\Drone2020\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63FEA3DD-E1F5-44DC-82F6-B195DBDAAA44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C3E59CB-EB70-49D2-9D7D-B79E85D5ABB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12696" xr2:uid="{67C86B9D-CC9E-4D70-93F9-BDE98FB7EB01}"/>
   </bookViews>
